--- a/biology/Zoologie/Eustreptospondylus/Eustreptospondylus.xlsx
+++ b/biology/Zoologie/Eustreptospondylus/Eustreptospondylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eustreptospondylus oxoniensis
-Eustreptospondylus (« vertèbres bien tournées ») est un  genre éteint de dinosaures carnivores dont les restes fossiles ont été trouvés en Angleterre méridionale. Il appartient à l'ordre des saurischiens, au sous-ordre des théropodes et à la famille des mégalosauridés. Il vivait pendant le Jurassique moyen, il y a environ 165 millions d'années. En 1870, un squelette presque complet d'un jeune Eustreptospondylus a été découvert près d'Oxford, en Angleterre[1]. 
-Une seule espèce est rattachée au genre : Eustreptospondylus oxoniensis, décrite par Alick Donald Walker en 1964[2].
+Eustreptospondylus (« vertèbres bien tournées ») est un  genre éteint de dinosaures carnivores dont les restes fossiles ont été trouvés en Angleterre méridionale. Il appartient à l'ordre des saurischiens, au sous-ordre des théropodes et à la famille des mégalosauridés. Il vivait pendant le Jurassique moyen, il y a environ 165 millions d'années. En 1870, un squelette presque complet d'un jeune Eustreptospondylus a été découvert près d'Oxford, en Angleterre. 
+Une seule espèce est rattachée au genre : Eustreptospondylus oxoniensis, décrite par Alick Donald Walker en 1964.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eustreptospondylus oxoniensis a été nommé par erreur Megalosaurus par le géologue John Phillips en 1871, parce que ce dinosaure était à l'époque le seul gros carnivore connu dans la région[3]. Ce fossile de juvénile est d'ailleurs, à ce jour, le seul que l'on possède de lui. Par extrapolation à partir d'autres mégalosauridés, on estime qu'Eustreptospondylus adulte pouvait mesurer jusqu'à 7 mètres de long et 3 mètres de haut pour une masse allant jusqu'à 2 tonnes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eustreptospondylus oxoniensis a été nommé par erreur Megalosaurus par le géologue John Phillips en 1871, parce que ce dinosaure était à l'époque le seul gros carnivore connu dans la région. Ce fossile de juvénile est d'ailleurs, à ce jour, le seul que l'on possède de lui. Par extrapolation à partir d'autres mégalosauridés, on estime qu'Eustreptospondylus adulte pouvait mesurer jusqu'à 7 mètres de long et 3 mètres de haut pour une masse allant jusqu'à 2 tonnes.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contemporain de stégosaures tels que Lexovisaurus et Loricatosaurus et des sauropodes comme Cetiosaurus, également présents dans la région, Eustreptospondylus oxoniensis les a peut-être chassés[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contemporain de stégosaures tels que Lexovisaurus et Loricatosaurus et des sauropodes comme Cetiosaurus, également présents dans la région, Eustreptospondylus oxoniensis les a peut-être chassés.
 </t>
         </is>
       </c>
